--- a/esempio.xlsx
+++ b/esempio.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Altri</t>
   </si>
   <si>
-    <t xml:space="preserve">1-gen</t>
+    <t xml:space="preserve">15-mag</t>
   </si>
   <si>
     <t xml:space="preserve">G</t>
@@ -40,43 +40,43 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">2-gen</t>
+    <t xml:space="preserve">16-mag</t>
   </si>
   <si>
     <t xml:space="preserve">P</t>
   </si>
   <si>
-    <t xml:space="preserve">3-gen</t>
+    <t xml:space="preserve">17-mag</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">4-gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-gen</t>
+    <t xml:space="preserve">18-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-mag</t>
   </si>
 </sst>
 </file>
@@ -181,13 +181,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/esempio.xlsx
+++ b/esempio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t xml:space="preserve">Giorno</t>
   </si>
@@ -31,45 +31,27 @@
     <t xml:space="preserve">Altri</t>
   </si>
   <si>
-    <t xml:space="preserve">15-mag</t>
+    <t xml:space="preserve">21-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-mag</t>
   </si>
   <si>
     <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-mag</t>
-  </si>
-  <si>
     <t xml:space="preserve">P</t>
   </si>
   <si>
-    <t xml:space="preserve">17-mag</t>
+    <t xml:space="preserve">23-mag</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">18-mag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-mag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-mag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-mag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-mag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-mag</t>
-  </si>
-  <si>
     <t xml:space="preserve">24-mag</t>
   </si>
   <si>
@@ -77,6 +59,24 @@
   </si>
   <si>
     <t xml:space="preserve">26-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-giu</t>
   </si>
 </sst>
 </file>
@@ -152,8 +152,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -181,134 +185,135 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>4</v>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/esempio.xlsx
+++ b/esempio.xlsx
@@ -182,15 +182,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -212,6 +212,9 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -277,6 +280,9 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -317,6 +323,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D9:D13"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
